--- a/Code Lists/PEPPOL Code Lists - Document types v5 draft.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Document types v5 draft.xlsx
@@ -378,22 +378,22 @@
     <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#conformant#urn:fdc:peppol.eu:2017:poacc:billing:international:sg:3.0::2.1</t>
   </si>
   <si>
-    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_1::2.1</t>
-  </si>
-  <si>
-    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_1::2.1</t>
-  </si>
-  <si>
-    <t>urn:un:unece:uncefact:data:standard:CrossIndustryInvoice:100::CrossIndustryInvoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_1::D16B</t>
-  </si>
-  <si>
-    <t>XRechnung UBL Invoice</t>
-  </si>
-  <si>
-    <t>XRechnung UBL CreditNote</t>
-  </si>
-  <si>
-    <t>XRechnung CII Invoice</t>
+    <t>XRechnung UBL Invoice V1.2</t>
+  </si>
+  <si>
+    <t>XRechnung UBL CreditNote V1.2</t>
+  </si>
+  <si>
+    <t>XRechnung CII Invoice V1.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_1.2::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_1.2::2.1</t>
+  </si>
+  <si>
+    <t>urn:un:unece:uncefact:data:standard:CrossIndustryInvoice:100::CrossIndustryInvoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_1.2::D16B</t>
   </si>
 </sst>
 </file>
@@ -893,8 +893,8 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -2100,13 +2100,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D64" s="6">
         <v>5</v>
@@ -2118,13 +2118,13 @@
     </row>
     <row r="65" spans="1:5" ht="29">
       <c r="A65" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D65" s="6">
         <v>5</v>
@@ -2136,13 +2136,13 @@
     </row>
     <row r="66" spans="1:5" ht="29">
       <c r="A66" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D66" s="6">
         <v>5</v>
